--- a/public/uploads/grower latest.xlsx
+++ b/public/uploads/grower latest.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GOD LOVE ME\Desktop\Docs\Growers Updated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F4E3E35-04B9-49A9-B1B2-4C0F0B0A7A0C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{126FC1C8-C5E8-47C1-B0BC-001A44EDA6BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10109,7 +10109,7 @@
   <dimension ref="A1:R851"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
